--- a/medicine/Enfance/Scott_O'Dell/Scott_O'Dell.xlsx
+++ b/medicine/Enfance/Scott_O'Dell/Scott_O'Dell.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Scott_O%27Dell</t>
+          <t>Scott_O'Dell</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Scott O'Dell, né le 23 mai 1898 à Los Angeles en Californie, et mort le 15 octobre 1989 à Mount Kisco dans l'État de New-York, est un écrivain américain pour la jeunesse. Il est lauréat du prestigieux prix international, le Prix Hans-Christian-Andersen, catégorie Écriture, en 1972.
 </t>
@@ -493,7 +505,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Scott_O%27Dell</t>
+          <t>Scott_O'Dell</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -511,7 +523,9 @@
           <t>Biographie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Scott O'Dell nait Odell Gabriel Scott, sur Terminal Island à Los Angeles, fils de May Elizabeth Gabriel et Bennett Mason Scott. Il fréquente plusieurs universités, dont Occidental College en 1919, l'université de Wisconsin–Madison en 1920, l'université Stanford en 1920-1921, et l'université de Rome « La Sapienza » en 1925. Lors de la seconde Guerre mondiale, il sert dans l'U.S. Air Force. 
 Avant de devenir un auteur à plein temps, il travaille à Hollywood comme cameraman et directeur technique, critique de livres pour le Los Angeles Mirror et pour le Los Angeles Daily News. C'est à cette période qu'un rédacteur change son nom en Scott O'Dell, que l'intéressé apprécia beaucoup et qu'il prend comme nom légal.
@@ -529,7 +543,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Scott_O%27Dell</t>
+          <t>Scott_O'Dell</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -547,7 +561,9 @@
           <t>Œuvres traduites en français</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t>L'Île des dauphins bleus (Island of the Blue Dolphins, 1960), GP, 1966, 1980 ; Pocket jeunesse, 2004.
 La Perle noire (The Black Pearl, 1967), Hachette , 1979.
@@ -569,7 +585,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Scott_O%27Dell</t>
+          <t>Scott_O'Dell</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -587,10 +603,12 @@
           <t>Prix et distinctions</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t>1961 : Médaille Newbery pour Island of the Blue Dolphins (L'Île des dauphins bleus)
-1962 : (international) « Honor List »[1], de l' IBBY, pour Island of the Blue Dolphins (L'Île des dauphins bleus)
+1962 : (international) « Honor List », de l' IBBY, pour Island of the Blue Dolphins (L'Île des dauphins bleus)
 1963 : Deutscher Jugendliteraturpreis pour Island of the Blue Dolphins (L'Île des dauphins bleus)
 1967 : Finaliste Médaille Newbery pour The King's Fifth (La Route de l'or)
 1968 : Finaliste Médaille Newbery pour The Black Pearl 
